--- a/Sprint 4/SysUt14 Gr 2 Sprint 4 Prosjekt burn down chart (stor).xlsx
+++ b/Sprint 4/SysUt14 Gr 2 Sprint 4 Prosjekt burn down chart (stor).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Redigere prosjekter</t>
+  </si>
+  <si>
+    <t>SysUt14 Gr 2 Sprint 4 prosjekt burn down chart stor</t>
   </si>
 </sst>
 </file>
@@ -179,23 +182,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -231,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -240,32 +234,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -347,37 +337,37 @@
                   <c:v>375.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>250.40000000000003</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>125.20000000000003</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8421709430404007E-14</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="71717248"/>
-        <c:axId val="71718784"/>
+        <c:axId val="47156224"/>
+        <c:axId val="47180416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71717248"/>
+        <c:axId val="47156224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71718784"/>
+        <c:crossAx val="47180416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71718784"/>
+        <c:axId val="47180416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -385,7 +375,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71717248"/>
+        <c:crossAx val="47156224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -398,7 +388,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -724,15 +714,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:R48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" customWidth="1"/>
+    <col min="1" max="1" width="50.42578125" customWidth="1"/>
     <col min="2" max="2" width="26.7109375" customWidth="1"/>
     <col min="3" max="8" width="10.7109375" customWidth="1"/>
     <col min="9" max="9" width="41.85546875" customWidth="1"/>
@@ -740,25 +730,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="2"/>
@@ -773,26 +763,26 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="15.75">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="6">
         <v>40</v>
       </c>
-      <c r="C2" s="8">
-        <v>20</v>
-      </c>
-      <c r="D2" s="8">
+      <c r="C2" s="6">
+        <v>20</v>
+      </c>
+      <c r="D2" s="6">
         <v>0</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="6">
         <v>0</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -802,26 +792,26 @@
       <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:17" ht="15.75">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8">
-        <v>20</v>
-      </c>
-      <c r="C3" s="8">
+      <c r="B3" s="6">
+        <v>20</v>
+      </c>
+      <c r="C3" s="6">
         <v>0</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <v>0</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="6">
         <v>0</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -831,26 +821,26 @@
       <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="1:17" ht="15.75">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="6">
         <v>5</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>5</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>5</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="6">
         <v>5</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -860,26 +850,26 @@
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:17" ht="15.75">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="8">
-        <v>20</v>
-      </c>
-      <c r="C5" s="8">
-        <v>20</v>
-      </c>
-      <c r="D5" s="8">
-        <v>20</v>
-      </c>
-      <c r="E5" s="8">
-        <v>20</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="B5" s="6">
+        <v>20</v>
+      </c>
+      <c r="C5" s="6">
+        <v>20</v>
+      </c>
+      <c r="D5" s="6">
+        <v>20</v>
+      </c>
+      <c r="E5" s="6">
+        <v>20</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -889,26 +879,26 @@
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="15.75">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="8">
-        <v>20</v>
-      </c>
-      <c r="C6" s="8">
-        <v>20</v>
-      </c>
-      <c r="D6" s="8">
-        <v>20</v>
-      </c>
-      <c r="E6" s="8">
-        <v>20</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="B6" s="6">
+        <v>20</v>
+      </c>
+      <c r="C6" s="6">
+        <v>20</v>
+      </c>
+      <c r="D6" s="6">
+        <v>20</v>
+      </c>
+      <c r="E6" s="6">
+        <v>20</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -918,26 +908,26 @@
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" ht="15.75">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="6">
         <v>15</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="6">
         <v>15</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>0</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <v>0</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -947,26 +937,26 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" ht="15.75">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="8">
-        <v>20</v>
-      </c>
-      <c r="C8" s="8">
-        <v>20</v>
-      </c>
-      <c r="D8" s="8">
-        <v>20</v>
-      </c>
-      <c r="E8" s="8">
+      <c r="B8" s="6">
+        <v>20</v>
+      </c>
+      <c r="C8" s="6">
+        <v>20</v>
+      </c>
+      <c r="D8" s="6">
+        <v>20</v>
+      </c>
+      <c r="E8" s="6">
         <v>1</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -976,26 +966,26 @@
       <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="1:17" ht="15.75">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="6">
         <v>40</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="6">
         <v>40</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>40</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="6">
         <v>0</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1005,26 +995,26 @@
       <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:17" ht="15.75">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="6">
         <v>10</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="6">
         <v>10</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>0</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="6">
         <v>0</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1034,26 +1024,26 @@
       <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="1:17" ht="15.75">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="6">
         <v>40</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="6">
         <v>40</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="6">
         <v>40</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="6">
         <v>5</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1063,26 +1053,26 @@
       <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:17" ht="15.75">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="6">
         <v>5</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="6">
         <v>5</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="6">
         <v>5</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="6">
         <v>5</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1092,26 +1082,26 @@
       <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="1:17" ht="15.75">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="6">
         <v>8</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="6">
         <v>8</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="6">
         <v>7</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="6">
         <v>0</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -1121,26 +1111,26 @@
       <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17" ht="15.75">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="6">
         <v>8</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="6">
         <v>8</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="6">
         <v>7</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="6">
         <v>0</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1150,26 +1140,26 @@
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17" ht="15.75">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="6">
         <v>15</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="6">
         <v>15</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="6">
         <v>15</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="6">
         <v>15</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1179,26 +1169,26 @@
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:17" ht="15.75">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="8">
-        <v>20</v>
-      </c>
-      <c r="C16" s="8">
-        <v>20</v>
-      </c>
-      <c r="D16" s="8">
-        <v>20</v>
-      </c>
-      <c r="E16" s="8">
-        <v>20</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="B16" s="6">
+        <v>20</v>
+      </c>
+      <c r="C16" s="6">
+        <v>20</v>
+      </c>
+      <c r="D16" s="6">
+        <v>20</v>
+      </c>
+      <c r="E16" s="6">
+        <v>20</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -1208,26 +1198,26 @@
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:18" ht="15.75">
-      <c r="A17" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="8">
+      <c r="A17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="6">
         <v>40</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="6">
         <v>40</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="6">
         <v>40</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="6">
         <v>40</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -1237,26 +1227,26 @@
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="1:18" ht="15.75">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="6">
         <v>10</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="6">
         <v>10</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="6">
         <v>10</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="6">
         <v>10</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -1266,26 +1256,26 @@
       <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="1:18" ht="15.75">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="6">
         <v>15</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="6">
         <v>15</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="6">
         <v>15</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="6">
         <v>15</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1295,26 +1285,26 @@
       <c r="Q19" s="2"/>
     </row>
     <row r="20" spans="1:18" ht="15.75">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="8">
-        <v>20</v>
-      </c>
-      <c r="C20" s="8">
-        <v>20</v>
-      </c>
-      <c r="D20" s="8">
-        <v>20</v>
-      </c>
-      <c r="E20" s="8">
-        <v>20</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
+      <c r="B20" s="6">
+        <v>20</v>
+      </c>
+      <c r="C20" s="6">
+        <v>20</v>
+      </c>
+      <c r="D20" s="6">
+        <v>20</v>
+      </c>
+      <c r="E20" s="6">
+        <v>20</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -1324,26 +1314,26 @@
       <c r="Q20" s="2"/>
     </row>
     <row r="21" spans="1:18" ht="15.75">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="6">
         <v>25</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="6">
         <v>25</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="6">
         <v>25</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="6">
         <v>25</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -1353,26 +1343,26 @@
       <c r="Q21" s="2"/>
     </row>
     <row r="22" spans="1:18" ht="15.75">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="6">
         <v>10</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="6">
         <v>10</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="6">
         <v>10</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="6">
         <v>10</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -1382,26 +1372,26 @@
       <c r="Q22" s="2"/>
     </row>
     <row r="23" spans="1:18" ht="15.75">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="8">
-        <v>20</v>
-      </c>
-      <c r="C23" s="8">
-        <v>20</v>
-      </c>
-      <c r="D23" s="8">
-        <v>20</v>
-      </c>
-      <c r="E23" s="8">
-        <v>20</v>
-      </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
+      <c r="B23" s="6">
+        <v>20</v>
+      </c>
+      <c r="C23" s="6">
+        <v>20</v>
+      </c>
+      <c r="D23" s="6">
+        <v>20</v>
+      </c>
+      <c r="E23" s="6">
+        <v>20</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -1411,26 +1401,26 @@
       <c r="Q23" s="2"/>
     </row>
     <row r="24" spans="1:18" ht="15.75">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="6">
         <v>100</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="6">
         <v>80</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="6">
         <v>60</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="6">
         <v>40</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -1440,26 +1430,26 @@
       <c r="Q24" s="2"/>
     </row>
     <row r="25" spans="1:18" ht="15.75">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="6">
         <v>100</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="6">
         <v>80</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="6">
         <v>60</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="6">
         <v>40</v>
       </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -1469,27 +1459,27 @@
       <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="1:18" ht="15.75">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="8">
         <f>SUM(B2:B25)</f>
         <v>626</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="8">
         <f>SUM(C2:C25)</f>
         <v>546</v>
       </c>
-      <c r="D26" s="10">
-        <f t="shared" ref="D26:G26" si="0">SUM(D2:D25)</f>
+      <c r="D26" s="8">
+        <f t="shared" ref="D26:E26" si="0">SUM(D2:D25)</f>
         <v>459</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="8">
         <f t="shared" si="0"/>
         <v>311</v>
       </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -1502,29 +1492,29 @@
       <c r="Q26" s="3"/>
     </row>
     <row r="27" spans="1:18" ht="15.75">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="10">
+      <c r="B27" s="7"/>
+      <c r="C27" s="8">
         <f>(B26-$B$26/5)</f>
         <v>500.8</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="8">
         <f>(C27-$B$26/5)</f>
         <v>375.6</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="8">
         <f>(D27-$B$26/5)</f>
-        <v>250.40000000000003</v>
-      </c>
-      <c r="F27" s="10">
+        <v>250</v>
+      </c>
+      <c r="F27" s="8">
         <f>(E27-$B$26/5)</f>
-        <v>125.20000000000003</v>
-      </c>
-      <c r="G27" s="10">
+        <v>125</v>
+      </c>
+      <c r="G27" s="8">
         <f>(F27-$B$26/5)</f>
-        <v>2.8421709430404007E-14</v>
+        <v>2</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -1537,10 +1527,9 @@
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
     </row>
-    <row r="28" spans="1:18" ht="15.75">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
+    <row r="28" spans="1:18">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1558,7 +1547,6 @@
       <c r="R28" s="1"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1576,6 +1564,11 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Sprint 4/SysUt14 Gr 2 Sprint 4 Prosjekt burn down chart (stor).xlsx
+++ b/Sprint 4/SysUt14 Gr 2 Sprint 4 Prosjekt burn down chart (stor).xlsx
@@ -311,6 +311,9 @@
                 <c:pt idx="2">
                   <c:v>311</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>173</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -350,24 +353,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="47156224"/>
-        <c:axId val="47180416"/>
+        <c:axId val="100217600"/>
+        <c:axId val="100219136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="47156224"/>
+        <c:axId val="100217600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47180416"/>
+        <c:crossAx val="100219136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47180416"/>
+        <c:axId val="100219136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -375,7 +378,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47156224"/>
+        <c:crossAx val="100217600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -388,7 +391,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -716,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -778,7 +781,9 @@
       <c r="E2" s="6">
         <v>0</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
       <c r="G2" s="6"/>
       <c r="H2" s="2"/>
       <c r="I2" s="4"/>
@@ -807,7 +812,9 @@
       <c r="E3" s="6">
         <v>0</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
       <c r="G3" s="6"/>
       <c r="H3" s="2"/>
       <c r="I3" s="4"/>
@@ -836,7 +843,9 @@
       <c r="E4" s="6">
         <v>5</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
       <c r="G4" s="6"/>
       <c r="H4" s="2"/>
       <c r="I4" s="4"/>
@@ -865,7 +874,9 @@
       <c r="E5" s="6">
         <v>20</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="6">
+        <v>4</v>
+      </c>
       <c r="G5" s="6"/>
       <c r="H5" s="2"/>
       <c r="I5" s="4"/>
@@ -894,7 +905,9 @@
       <c r="E6" s="6">
         <v>20</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="6">
+        <v>13</v>
+      </c>
       <c r="G6" s="6"/>
       <c r="H6" s="2"/>
       <c r="I6" s="4"/>
@@ -923,7 +936,9 @@
       <c r="E7" s="6">
         <v>0</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
       <c r="G7" s="6"/>
       <c r="H7" s="2"/>
       <c r="I7" s="4"/>
@@ -952,7 +967,9 @@
       <c r="E8" s="6">
         <v>1</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
       <c r="G8" s="6"/>
       <c r="H8" s="2"/>
       <c r="I8" s="4"/>
@@ -981,7 +998,9 @@
       <c r="E9" s="6">
         <v>0</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
       <c r="G9" s="6"/>
       <c r="H9" s="2"/>
       <c r="I9" s="4"/>
@@ -1010,7 +1029,9 @@
       <c r="E10" s="6">
         <v>0</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
       <c r="G10" s="6"/>
       <c r="H10" s="2"/>
       <c r="I10" s="4"/>
@@ -1039,7 +1060,9 @@
       <c r="E11" s="6">
         <v>5</v>
       </c>
-      <c r="F11" s="6"/>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
       <c r="G11" s="6"/>
       <c r="H11" s="2"/>
       <c r="I11" s="4"/>
@@ -1068,7 +1091,9 @@
       <c r="E12" s="6">
         <v>5</v>
       </c>
-      <c r="F12" s="6"/>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
       <c r="G12" s="6"/>
       <c r="H12" s="2"/>
       <c r="I12" s="4"/>
@@ -1097,7 +1122,9 @@
       <c r="E13" s="6">
         <v>0</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
       <c r="G13" s="6"/>
       <c r="H13" s="2"/>
       <c r="I13" s="4"/>
@@ -1126,7 +1153,9 @@
       <c r="E14" s="6">
         <v>0</v>
       </c>
-      <c r="F14" s="6"/>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
       <c r="G14" s="6"/>
       <c r="H14" s="2"/>
       <c r="I14" s="4"/>
@@ -1155,7 +1184,9 @@
       <c r="E15" s="6">
         <v>15</v>
       </c>
-      <c r="F15" s="6"/>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
       <c r="G15" s="6"/>
       <c r="H15" s="2"/>
       <c r="I15" s="4"/>
@@ -1184,7 +1215,9 @@
       <c r="E16" s="6">
         <v>20</v>
       </c>
-      <c r="F16" s="6"/>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
       <c r="G16" s="6"/>
       <c r="H16" s="2"/>
       <c r="I16" s="4"/>
@@ -1213,7 +1246,9 @@
       <c r="E17" s="6">
         <v>40</v>
       </c>
-      <c r="F17" s="6"/>
+      <c r="F17" s="6">
+        <v>36</v>
+      </c>
       <c r="G17" s="6"/>
       <c r="H17" s="2"/>
       <c r="I17" s="4"/>
@@ -1242,7 +1277,9 @@
       <c r="E18" s="6">
         <v>10</v>
       </c>
-      <c r="F18" s="6"/>
+      <c r="F18" s="6">
+        <v>10</v>
+      </c>
       <c r="G18" s="6"/>
       <c r="H18" s="2"/>
       <c r="I18" s="4"/>
@@ -1271,7 +1308,9 @@
       <c r="E19" s="6">
         <v>15</v>
       </c>
-      <c r="F19" s="6"/>
+      <c r="F19" s="6">
+        <v>15</v>
+      </c>
       <c r="G19" s="6"/>
       <c r="H19" s="2"/>
       <c r="I19" s="4"/>
@@ -1300,7 +1339,9 @@
       <c r="E20" s="6">
         <v>20</v>
       </c>
-      <c r="F20" s="6"/>
+      <c r="F20" s="6">
+        <v>20</v>
+      </c>
       <c r="G20" s="6"/>
       <c r="H20" s="2"/>
       <c r="I20" s="4"/>
@@ -1329,7 +1370,9 @@
       <c r="E21" s="6">
         <v>25</v>
       </c>
-      <c r="F21" s="6"/>
+      <c r="F21" s="6">
+        <v>25</v>
+      </c>
       <c r="G21" s="6"/>
       <c r="H21" s="2"/>
       <c r="I21" s="4"/>
@@ -1358,7 +1401,9 @@
       <c r="E22" s="6">
         <v>10</v>
       </c>
-      <c r="F22" s="6"/>
+      <c r="F22" s="6">
+        <v>10</v>
+      </c>
       <c r="G22" s="6"/>
       <c r="H22" s="2"/>
       <c r="I22" s="4"/>
@@ -1387,7 +1432,9 @@
       <c r="E23" s="6">
         <v>20</v>
       </c>
-      <c r="F23" s="6"/>
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
       <c r="G23" s="6"/>
       <c r="H23" s="2"/>
       <c r="I23" s="4"/>
@@ -1416,7 +1463,9 @@
       <c r="E24" s="6">
         <v>40</v>
       </c>
-      <c r="F24" s="6"/>
+      <c r="F24" s="6">
+        <v>20</v>
+      </c>
       <c r="G24" s="6"/>
       <c r="H24" s="2"/>
       <c r="I24" s="4"/>
@@ -1445,7 +1494,9 @@
       <c r="E25" s="6">
         <v>40</v>
       </c>
-      <c r="F25" s="6"/>
+      <c r="F25" s="6">
+        <v>20</v>
+      </c>
       <c r="G25" s="6"/>
       <c r="H25" s="3"/>
       <c r="I25" s="5"/>
@@ -1478,7 +1529,10 @@
         <f t="shared" si="0"/>
         <v>311</v>
       </c>
-      <c r="F26" s="8"/>
+      <c r="F26" s="8">
+        <f>SUM(F2:F25)</f>
+        <v>173</v>
+      </c>
       <c r="G26" s="8"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -1514,7 +1568,7 @@
       </c>
       <c r="G27" s="8">
         <f>(F27-$B$26/5)</f>
-        <v>2</v>
+        <v>-0.20000000000000284</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
